--- a/servidor/leerPlantillas/plantillaConfiguracionGeneral (4).xlsx
+++ b/servidor/leerPlantillas/plantillaConfiguracionGeneral (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Desktop\PROYECTOS\ProyectoFulltime\FullTimeActualizado\FullTime4.0\servidor\plantillasRegistro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0A97FD-10C0-48E1-AE90-EB147B314A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94A085-9CBA-4A03-A1E7-3D41F23B3861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{384850A9-86C8-4587-9708-E6BD7F8E3DE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{384850A9-86C8-4587-9708-E6BD7F8E3DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANTILLAS_SISTEMA_FULLTIME" sheetId="19" r:id="rId1"/>
@@ -31,21 +31,29 @@
     <sheet name="TIPO_DISCAPACIDAD" sheetId="7" r:id="rId16"/>
     <sheet name="TIPO_VACUNA" sheetId="8" r:id="rId17"/>
     <sheet name="BIOMETRICOS" sheetId="17" r:id="rId18"/>
-    <sheet name="SELECTORES" sheetId="14" state="hidden" r:id="rId19"/>
+    <sheet name="GRUPO_OCUPACIONAL" sheetId="20" r:id="rId19"/>
+    <sheet name="GRADO" sheetId="21" r:id="rId20"/>
+    <sheet name="PROCESOS" sheetId="22" r:id="rId21"/>
+    <sheet name="DETALLE_TIPO_ACCION_PERSONAL" sheetId="23" r:id="rId22"/>
+    <sheet name="SELECTORES" sheetId="14" state="hidden" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">BIOMETRICOS!$B$1:$R$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">CIUDAD_FERIADOS!$B$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DEPARTAMENTOS!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">DETALLE_HORARIOS!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">DETALLE_TIPO_ACCION_PERSONAL!$B$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">EMPLEADOS!$B$1:$R$1764</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">EMPLEADOS_CARGOS!$B$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">EMPLEADOS_CONTRATOS!$B$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">FERIADOS!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">GRADO!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">GRUPO_OCUPACIONAL!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">HORARIOS!$B$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MODALIDAD_LABORAL!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NIVEL_DEPARTAMENTOS!$B$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">NIVELES_TITULOS!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">PROCESOS!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUCURSALES!$B$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TIPO_CARGO!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">TIPO_DISCAPACIDAD!$B$1:$C$1</definedName>
@@ -73,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="722">
   <si>
     <t>Quito</t>
   </si>
@@ -2155,35 +2163,156 @@
     <t>ZONA_HORARIA</t>
   </si>
   <si>
-    <t>1515151515</t>
-  </si>
-  <si>
-    <t>APELLIDO1 APELLIDO2</t>
-  </si>
-  <si>
-    <t>NOMBRE1 NOMBRE2</t>
-  </si>
-  <si>
-    <t>nombreuno.nombredos</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>0958770580</t>
-  </si>
-  <si>
-    <t>Calle de la Fuente 4244</t>
-  </si>
-  <si>
-    <t>9999</t>
+    <t xml:space="preserve"> Datos obligatorios</t>
+  </si>
+  <si>
+    <t>INFORMACIÓN GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datos opcionales</t>
+  </si>
+  <si>
+    <t>La plantilla contiene algunas celdas con una lista de datos que deberán ser selecionadas, en el caso de hacer un ingreso manual procurar que sea la misma información de la lista de opciones para evitar errores en el ingreso de la información.</t>
+  </si>
+  <si>
+    <t>No cambiar los nombres de las pestañas que contiene la plantilla.</t>
+  </si>
+  <si>
+    <t>Datos obligatorios, si posee activo el Módulo de Acciones de Personal</t>
+  </si>
+  <si>
+    <t>En cada plantilla se encuentran datos de ejemplo que pueden ser eliminados al ingresar su información.</t>
+  </si>
+  <si>
+    <t>No cambiar los nombres de las cabeceras de la plantilla.</t>
+  </si>
+  <si>
+    <t>Todas las cabeceras se encuentran validadas en letras mayúsculas.</t>
+  </si>
+  <si>
+    <t>No eliminar ninguna de las columnas de la plantilla.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los datos como cédulas, códigos, teléfonos y fechas estan configurados en la plantilla con un formato tipo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>texto.</t>
+    </r>
+  </si>
+  <si>
+    <t>En la plantilla las cabeceras se presentan con los siguientes colores.</t>
+  </si>
+  <si>
+    <t>La columna ITEM, deberá estar correctamente enumerada; ya que de existir errores el sistema indicará en que ITEM debe corregirse la información.</t>
+  </si>
+  <si>
+    <t>No cambiar el nombre de la plantilla, puesto que el sistema válida el nombre de este documento.</t>
+  </si>
+  <si>
+    <t>PROCESOS</t>
+  </si>
+  <si>
+    <t>DETALLE TIPO DE ACCIONES DE PERSONAL</t>
+  </si>
+  <si>
+    <t>NUMERO_PARTIDA</t>
+  </si>
+  <si>
+    <t>Gerente de Proyectos</t>
+  </si>
+  <si>
+    <t>0001254592254566333</t>
+  </si>
+  <si>
+    <t>Grado 1</t>
+  </si>
+  <si>
+    <t>PROCESO_PADRE</t>
+  </si>
+  <si>
+    <t>Habilitantes de Apoyo</t>
+  </si>
+  <si>
+    <t>Educación y Apoyo</t>
+  </si>
+  <si>
+    <t>TIPO_ACCION_PERSONAL</t>
+  </si>
+  <si>
+    <t>BASE_LEGAL</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>Ingreso a la institución con cargo Gerente</t>
+  </si>
+  <si>
+    <t>Artículo de la ley…</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Para evitar errores en el sistema con respecto a la configuración de procesos considerar lo siguiente:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1. Un proceso no puede tenerse asi mismo definido como proceso padre.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Un proceso A no puede ser padre de un proceso B cuando el proceso B sea padre del proceso A.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,8 +2381,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2272,8 +2407,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2331,13 +2484,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2393,6 +2583,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2402,13 +2622,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2468,6 +2715,106 @@
         <a:xfrm>
           <a:off x="1866900" y="68580"/>
           <a:ext cx="1539240" cy="513080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4526807</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2D61E7-E365-8DF4-4A5A-CAF34B353FCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6402312" y="6065521"/>
+          <a:ext cx="4395755" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4632960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>70550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E23C06-0CEA-EBD6-49B7-193E20B54F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6463210" y="7612380"/>
+          <a:ext cx="4441010" cy="1007810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,6 +3330,62 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0719F4-A839-42A7-A918-749ADEA14301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22860" y="22860"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3027,6 +3430,174 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="22860"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>282480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258D5679-40B9-42D1-A1B9-CB8E8DF51D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="15240"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>282480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BFA30C-A568-48FF-9EC0-E1D92BF6EAFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="15240"/>
+          <a:ext cx="252000" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>282480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68607FE4-4F76-484F-8778-E1063BFF01ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="15240"/>
           <a:ext cx="252000" cy="252000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3432,7 +4003,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3751,170 +4322,392 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="B1:C19"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="2"/>
     <col min="2" max="2" width="5.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="46.109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="2"/>
+    <col min="4" max="5" width="11.5546875" style="2"/>
+    <col min="6" max="6" width="5.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="71.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="30"/>
+      <c r="F2" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>704</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="25" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="34"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="25" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="34"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="34">
+        <v>3</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="34"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="34">
+        <v>4</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="34"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="34"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="16">
+        <v>6</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="16">
+        <v>7</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="34">
+        <v>8</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="34"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="34">
+        <v>9</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>482</v>
       </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>18</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" s="34">
+        <v>10</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>19</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="F22" s="39">
+        <v>11</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>21</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="40"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="40"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="40"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="40"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="40"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="40"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="40"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="40"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="40"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="40"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="40"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="40"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="40"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="40"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="40"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="41"/>
+      <c r="G39" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="19">
+    <mergeCell ref="G22:G39"/>
+    <mergeCell ref="F22:F39"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F10:F12"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" location="MODALIDAD_LABORAL!B1" display="MODALIDAD LABORAL" xr:uid="{89521395-5A1F-4F67-8051-727F8213DD4F}"/>
@@ -3934,6 +4727,10 @@
     <hyperlink ref="C17" location="TIPO_DISCAPACIDAD!B1" display="TIPOS DE DISCAPACIDAD" xr:uid="{892B4864-467B-47F1-9F21-B69A3E26194C}"/>
     <hyperlink ref="C18" location="TIPO_VACUNA!B1" display="TIPOS DE VACUNA" xr:uid="{7372FC48-0EE7-4EBC-915C-263CC4F98A83}"/>
     <hyperlink ref="C19" location="BIOMETRICOS!B1" display="BIOMETRICOS" xr:uid="{C7F3D14E-FB27-466A-99A9-A597FD84B045}"/>
+    <hyperlink ref="C20" location="GRUPO_OCUPACIONAL!B1" display="GRUPO OCUPACIONAL" xr:uid="{573EE6AF-DBFE-4789-AD99-615DF0C13BAD}"/>
+    <hyperlink ref="C21" location="GRADO!B1" display="GRADO" xr:uid="{E12F4850-99BE-4EDD-818D-F9BC4EE418AC}"/>
+    <hyperlink ref="C22" location="PROCESOS!B1" display="PROCESOS" xr:uid="{7BF064A9-8B2C-4F68-9C98-D9EB747C4AE1}"/>
+    <hyperlink ref="C23" location="DETALLE_TIPO_ACCION_PERSONAL!B1" display="DETALLE TIPO DE ACCIONES DE PERSONAL" xr:uid="{933DB681-E50A-44EA-80E9-350E36790BD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3945,11 +4742,13 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -4055,11 +4854,13 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
@@ -4237,11 +5038,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -4318,15 +5121,18 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.6640625" style="2"/>
+    <col min="3" max="3" width="33.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="2"/>
     <col min="5" max="5" width="26.77734375" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="2" customWidth="1"/>
@@ -4354,10 +5160,10 @@
       <c r="G1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="22" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4449,15 +5255,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
@@ -4495,15 +5303,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="30.77734375" style="4"/>
+    <col min="3" max="3" width="34.44140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="30.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -4541,15 +5352,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="2"/>
+    <col min="3" max="3" width="32.21875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="30.77734375" style="4"/>
   </cols>
   <sheetData>
@@ -4582,11 +5395,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
@@ -4628,7 +5443,7 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
@@ -4671,22 +5486,22 @@
       <c r="K1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="22" t="s">
         <v>444</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="22" t="s">
         <v>397</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -7076,2403 +7891,174 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD5A4F5-BE04-4803-95A0-E9AE3C6C86A1}">
-  <dimension ref="A1:F348"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C734C-FC33-4BF7-A704-1D67872920D6}">
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="16.77734375" style="4"/>
-    <col min="6" max="6" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.77734375" style="4"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="30.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="149" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="153" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="159" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="168" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="169" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="170" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="171" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="172" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="174" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="178" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="181" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="182" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="183" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="184" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="185" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="186" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="187" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="188" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="189" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="190" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F190" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="191" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F191" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="192" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="193" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="194" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="195" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="196" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="197" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="198" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="199" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="200" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="201" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="202" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="203" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="204" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="205" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="206" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="207" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="208" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="210" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="211" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="212" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="213" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="214" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="215" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="216" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="217" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="218" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="219" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="245" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="246" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="247" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="248" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="249" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="251" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="252" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="253" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="254" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="255" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="256" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="257" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="258" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="259" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="260" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="261" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="262" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="263" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="264" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="265" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="266" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="267" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="268" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="269" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="270" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="271" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="272" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="273" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="274" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="275" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="276" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="277" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="278" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="279" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="280" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="281" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="282" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="283" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="284" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="285" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="286" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="287" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="288" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="289" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="290" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="291" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="292" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="293" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="294" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="295" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="296" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="297" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="298" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="299" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="300" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="301" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="302" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="303" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="304" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="305" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="306" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="307" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="308" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="309" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="310" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="311" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="312" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="313" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="314" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="315" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="316" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="317" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="318" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="319" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="320" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="321" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="322" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="323" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="324" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="325" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="326" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="327" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="328" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="329" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="330" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="331" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="332" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="333" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="334" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="335" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="336" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="337" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="338" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="339" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="340" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="341" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="342" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" s="4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="343" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="344" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="345" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="346" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" s="4" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="347" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="348" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
+  <autoFilter ref="B1:D1" xr:uid="{2F6C734C-FC33-4BF7-A704-1D67872920D6}"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error dato" error="Ingrese solo numeros enteros y en orden" promptTitle="Solo numeros" sqref="B2:B133" xr:uid="{37A218A5-D446-4783-B1BB-378EC6D4A2EC}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9481,11 +8067,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -9524,16 +8112,2888 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A238EF-2EEA-4C1B-A539-13F2F92A7A20}">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="30.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:C1" xr:uid="{85A238EF-2EEA-4C1B-A539-13F2F92A7A20}"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error dato" error="Ingrese solo numeros enteros y en orden" promptTitle="Solo numeros" sqref="B2:B133" xr:uid="{F6899BCA-CA07-4F70-8F45-DA444FB39EE8}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D8E5BE-D76B-43FB-AB2B-0CD43BC4BDDF}">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="30.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <autoFilter ref="B1:D1" xr:uid="{45D8E5BE-D76B-43FB-AB2B-0CD43BC4BDDF}"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error dato" error="Ingrese solo numeros enteros y en orden" promptTitle="Solo numeros" sqref="B2:B133" xr:uid="{802E73C8-C84A-4148-9783-FFD380492950}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDF3D2D-C062-4025-810F-6190ED16C5CB}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="92.109375" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="30.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:E1" xr:uid="{1EDF3D2D-C062-4025-810F-6190ED16C5CB}"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error dato" error="Ingrese solo numeros enteros y en orden" promptTitle="Solo numeros" sqref="B2:B133" xr:uid="{9A09C606-8B7E-4505-91CB-1AD4157B70AB}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD5A4F5-BE04-4803-95A0-E9AE3C6C86A1}">
+  <dimension ref="A1:F348"/>
+  <sheetViews>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="16.77734375" style="4"/>
+    <col min="6" max="6" width="39.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D178" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D180" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D181" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D182" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D183" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D184" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D185" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D186" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D187" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D188" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D189" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="190" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D190" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="191" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D191" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="192" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D192" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D193" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D194" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D195" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D196" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D197" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D198" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D199" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D200" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D201" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D202" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D203" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D204" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D205" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D206" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D207" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D208" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D209" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D210" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D211" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D212" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D213" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D214" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D215" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D216" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D217" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D218" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D219" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D220" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D221" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D222" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D223" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D224" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D225" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D226" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D227" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D228" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D229" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D232" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D233" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D234" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D235" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D236" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D237" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D238" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D239" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D240" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D241" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D242" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D243" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D244" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D245" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D246" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D247" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D248" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D249" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D250" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D251" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D252" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D253" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D254" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D255" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D256" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D257" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D258" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D259" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D260" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D261" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D262" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D263" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D264" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D265" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D266" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D267" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D268" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D269" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D270" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D271" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D272" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D273" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D274" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D275" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D276" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D277" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D278" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D279" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D280" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D281" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D282" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D283" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D284" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D285" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D286" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D287" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D288" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D289" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D290" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D291" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D292" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D293" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D294" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D295" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D296" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D297" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D298" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D299" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D300" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D301" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D302" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D303" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D304" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D305" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D306" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D307" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D308" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D309" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D310" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D311" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D312" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D313" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D314" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D315" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D316" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D317" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D318" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D319" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D320" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D321" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D322" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D323" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D324" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D325" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D326" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D327" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D328" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D329" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D330" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D331" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D332" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D333" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D334" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D335" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D336" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D337" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D338" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D339" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D340" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D341" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D342" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D343" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D344" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D345" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D346" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D347" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D348" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB5FE98-D127-4F72-80ED-0818E925ABF9}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="4" customWidth="1"/>
@@ -9762,11 +11222,13 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -9837,84 +11299,32 @@
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="3:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-    </row>
+    <row r="17" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="B1:D1" xr:uid="{20C94F44-3285-4674-993F-F074E4017640}"/>
   <dataValidations count="1">
@@ -9932,11 +11342,13 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -10095,16 +11507,18 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="21.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="43.44140625" style="2" customWidth="1"/>
@@ -10188,14 +11602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6E27C0-ADA2-4A66-92DF-282EA39B4B93}">
   <dimension ref="A1:R1764"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -10248,13 +11662,13 @@
       <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="23" t="s">
         <v>401</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="22" t="s">
         <v>403</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -10318,57 +11732,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>-0.29974331775556401</v>
-      </c>
-      <c r="R3" s="2">
-        <v>-77.547306518361097</v>
-      </c>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O4" s="9"/>
@@ -15655,9 +17019,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:R1764" xr:uid="{8C6E27C0-ADA2-4A66-92DF-282EA39B4B93}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Ingrese solo numeros enteros en orden" promptTitle="Solo numeros" sqref="B3:B4 B51 B98 B145 B192 B239 B286 B333 B380 B427 B474 B521 B568 B615 B662 B709 B756 B803 B850 B897 B944 B991 B1038 B1085 B1132 B1179 B1226 B1273 B1320 B1367 B1414 B1461 B1508 B1555 B1602 B1649 B1696 B1743 B7 B54 B101 B148 B195 B242 B289 B336 B383 B430 B477 B524 B571 B618 B665 B712 B759 B806 B853 B900 B947 B994 B1041 B1088 B1135 B1182 B1229 B1276 B1323 B1370 B1417 B1464 B1511 B1558 B1605 B1652 B1699 B1746 B44 B91 B138 B185 B232 B279 B326 B373 B420 B467 B514 B561 B608 B655 B702 B749 B796 B843 B890 B937 B984 B1031 B1078 B1125 B1172 B1219 B1266 B1313 B1360 B1407 B1454 B1501 B1548 B1595 B1642 B1689 B1736 B12 B59 B106 B153 B200 B247 B294 B341 B388 B435 B482 B529 B576 B623 B670 B717 B764 B811 B858 B905 B952 B999 B1046 B1093 B1140 B1187 B1234 B1281 B1328 B1375 B1422 B1469 B1516 B1563 B1610 B1657 B1704 B1751 B17 B64 B111 B158 B205 B252 B299 B346 B393 B440 B487 B534 B581 B628 B675 B722 B769 B816 B863 B910 B957 B1004 B1051 B1098 B1145 B1192 B1239 B1286 B1333 B1380 B1427 B1474 B1521 B1568 B1615 B1662 B1709 B1756 B22 B69 B116 B163 B210 B257 B304 B351 B398 B445 B492 B539 B586 B633 B680 B727 B774 B821 B868 B915 B962 B1009 B1056 B1103 B1150 B1197 B1244 B1291 B1338 B1385 B1432 B1479 B1526 B1573 B1620 B1667 B1714 B1761 B27 B74 B121 B168 B215 B262 B309 B356 B403 B450 B497 B544 B591 B638 B685 B732 B779 B826 B873 B920 B967 B1014 B1061 B1108 B1155 B1202 B1249 B1296 B1343 B1390 B1437 B1484 B1531 B1578 B1625 B1672 B1719 B32 B79 B126 B173 B220 B267 B314 B361 B408 B455 B502 B549 B596 B643 B690 B737 B784 B831 B878 B925 B972 B1019 B1066 B1113 B1160 B1207 B1254 B1301 B1348 B1395 B1442 B1489 B1536 B1583 B1630 B1677 B1724 B37 B84 B131 B178 B225 B272 B319 B366 B413 B460 B507 B554 B601 B648 B695 B742 B789 B836 B883 B930 B977 B1024 B1071 B1118 B1165 B1212 B1259 B1306 B1353 B1400 B1447 B1494 B1541 B1588 B1635 B1682 B1729 B42 B89 B136 B183 B230 B277 B324 B371 B418 B465 B512 B559 B606 B653 B700 B747 B794 B841 B888 B935 B982 B1029 B1076 B1123 B1170 B1217 B1264 B1311 B1358 B1405 B1452 B1499 B1546 B1593 B1640 B1687 B1734 B47 B94 B141 B188 B235 B282 B329 B376 B423 B470 B517 B564 B611 B658 B705 B752 B799 B846 B893 B940 B987 B1034 B1081 B1128 B1175 B1222 B1269 B1316 B1363 B1410 B1457 B1504 B1551 B1598 B1645 B1692 B1739 B9 B56 B103 B150 B197 B244 B291 B338 B385 B432 B479 B526 B573 B620 B667 B714 B761 B808 B855 B902 B949 B996 B1043 B1090 B1137 B1184 B1231 B1278 B1325 B1372 B1419 B1466 B1513 B1560 B1607 B1654 B1701 B1748 B14 B61 B108 B155 B202 B249 B296 B343 B390 B437 B484 B531 B578 B625 B672 B719 B766 B813 B860 B907 B954 B1001 B1048 B1095 B1142 B1189 B1236 B1283 B1330 B1377 B1424 B1471 B1518 B1565 B1612 B1659 B1706 B1753 B19 B66 B113 B160 B207 B254 B301 B348 B395 B442 B489 B536 B583 B630 B677 B724 B771 B818 B865 B912 B959 B1006 B1053 B1100 B1147 B1194 B1241 B1288 B1335 B1382 B1429 B1476 B1523 B1570 B1617 B1664 B1711 B1758 B24 B71 B118 B165 B212 B259 B306 B353 B400 B447 B494 B541 B588 B635 B682 B729 B776 B823 B870 B917 B964 B1011 B1058 B1105 B1152 B1199 B1246 B1293 B1340 B1387 B1434 B1481 B1528 B1575 B1622 B1669 B1716 B1763 B29 B76 B123 B170 B217 B264 B311 B358 B405 B452 B499 B546 B593 B640 B687 B734 B781 B828 B875 B922 B969 B1016 B1063 B1110 B1157 B1204 B1251 B1298 B1345 B1392 B1439 B1486 B1533 B1580 B1627 B1674 B1721 B34 B81 B128 B175 B222 B269 B316 B363 B410 B457 B504 B551 B598 B645 B692 B739 B786 B833 B880 B927 B974 B1021 B1068 B1115 B1162 B1209 B1256 B1303 B1350 B1397 B1444 B1491 B1538 B1585 B1632 B1679 B1726 B39 B86 B133 B180 B227 B274 B321 B368 B415 B462 B509 B556 B603 B650 B697 B744 B791 B838 B885 B932 B979 B1026 B1073 B1120 B1167 B1214 B1261 B1308 B1355 B1402 B1449 B1496 B1543 B1590 B1637 B1684 B1731" xr:uid="{B77A1A61-6EC4-4348-9B0F-FA9B399B26C0}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Ingrese solo numeros enteros en orden" promptTitle="Solo numeros" sqref="B3 B4 B51 B98 B145 B192 B239 B286 B333 B380 B427 B474 B521 B568 B615 B662 B709 B756 B803 B850 B897 B944 B991 B1038 B1085 B1132 B1179 B1226 B1273 B1320 B1367 B1414 B1461 B1508 B1555 B1602 B1649 B1696 B1743 B7 B54 B101 B148 B195 B242 B289 B336 B383 B430 B477 B524 B571 B618 B665 B712 B759 B806 B853 B900 B947 B994 B1041 B1088 B1135 B1182 B1229 B1276 B1323 B1370 B1417 B1464 B1511 B1558 B1605 B1652 B1699 B1746 B44 B91 B138 B185 B232 B279 B326 B373 B420 B467 B514 B561 B608 B655 B702 B749 B796 B843 B890 B937 B984 B1031 B1078 B1125 B1172 B1219 B1266 B1313 B1360 B1407 B1454 B1501 B1548 B1595 B1642 B1689 B1736 B12 B59 B106 B153 B200 B247 B294 B341 B388 B435 B482 B529 B576 B623 B670 B717 B764 B811 B858 B905 B952 B999 B1046 B1093 B1140 B1187 B1234 B1281 B1328 B1375 B1422 B1469 B1516 B1563 B1610 B1657 B1704 B1751 B17 B64 B111 B158 B205 B252 B299 B346 B393 B440 B487 B534 B581 B628 B675 B722 B769 B816 B863 B910 B957 B1004 B1051 B1098 B1145 B1192 B1239 B1286 B1333 B1380 B1427 B1474 B1521 B1568 B1615 B1662 B1709 B1756 B22 B69 B116 B163 B210 B257 B304 B351 B398 B445 B492 B539 B586 B633 B680 B727 B774 B821 B868 B915 B962 B1009 B1056 B1103 B1150 B1197 B1244 B1291 B1338 B1385 B1432 B1479 B1526 B1573 B1620 B1667 B1714 B1761 B27 B74 B121 B168 B215 B262 B309 B356 B403 B450 B497 B544 B591 B638 B685 B732 B779 B826 B873 B920 B967 B1014 B1061 B1108 B1155 B1202 B1249 B1296 B1343 B1390 B1437 B1484 B1531 B1578 B1625 B1672 B1719 B32 B79 B126 B173 B220 B267 B314 B361 B408 B455 B502 B549 B596 B643 B690 B737 B784 B831 B878 B925 B972 B1019 B1066 B1113 B1160 B1207 B1254 B1301 B1348 B1395 B1442 B1489 B1536 B1583 B1630 B1677 B1724 B37 B84 B131 B178 B225 B272 B319 B366 B413 B460 B507 B554 B601 B648 B695 B742 B789 B836 B883 B930 B977 B1024 B1071 B1118 B1165 B1212 B1259 B1306 B1353 B1400 B1447 B1494 B1541 B1588 B1635 B1682 B1729 B42 B89 B136 B183 B230 B277 B324 B371 B418 B465 B512 B559 B606 B653 B700 B747 B794 B841 B888 B935 B982 B1029 B1076 B1123 B1170 B1217 B1264 B1311 B1358 B1405 B1452 B1499 B1546 B1593 B1640 B1687 B1734 B47 B94 B141 B188 B235 B282 B329 B376 B423 B470 B517 B564 B611 B658 B705 B752 B799 B846 B893 B940 B987 B1034 B1081 B1128 B1175 B1222 B1269 B1316 B1363 B1410 B1457 B1504 B1551 B1598 B1645 B1692 B1739 B9 B56 B103 B150 B197 B244 B291 B338 B385 B432 B479 B526 B573 B620 B667 B714 B761 B808 B855 B902 B949 B996 B1043 B1090 B1137 B1184 B1231 B1278 B1325 B1372 B1419 B1466 B1513 B1560 B1607 B1654 B1701 B1748 B14 B61 B108 B155 B202 B249 B296 B343 B390 B437 B484 B531 B578 B625 B672 B719 B766 B813 B860 B907 B954 B1001 B1048 B1095 B1142 B1189 B1236 B1283 B1330 B1377 B1424 B1471 B1518 B1565 B1612 B1659 B1706 B1753 B19 B66 B113 B160 B207 B254 B301 B348 B395 B442 B489 B536 B583 B630 B677 B724 B771 B818 B865 B912 B959 B1006 B1053 B1100 B1147 B1194 B1241 B1288 B1335 B1382 B1429 B1476 B1523 B1570 B1617 B1664 B1711 B1758 B24 B71 B118 B165 B212 B259 B306 B353 B400 B447 B494 B541 B588 B635 B682 B729 B776 B823 B870 B917 B964 B1011 B1058 B1105 B1152 B1199 B1246 B1293 B1340 B1387 B1434 B1481 B1528 B1575 B1622 B1669 B1716 B1763 B29 B76 B123 B170 B217 B264 B311 B358 B405 B452 B499 B546 B593 B640 B687 B734 B781 B828 B875 B922 B969 B1016 B1063 B1110 B1157 B1204 B1251 B1298 B1345 B1392 B1439 B1486 B1533 B1580 B1627 B1674 B1721 B34 B81 B128 B175 B222 B269 B316 B363 B410 B457 B504 B551 B598 B645 B692 B739 B786 B833 B880 B927 B974 B1021 B1068 B1115 B1162 B1209 B1256 B1303 B1350 B1397 B1444 B1491 B1538 B1585 B1632 B1679 B1726 B39 B86 B133 B180 B227 B274 B321 B368 B415 B462 B509 B556 B603 B650 B697 B744 B791 B838 B885 B932 B979 B1026 B1073 B1120 B1167 B1214 B1261 B1308 B1355 B1402 B1449 B1496 B1543 B1590 B1637 B1684 B1731" xr:uid="{B77A1A61-6EC4-4348-9B0F-FA9B399B26C0}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -15701,7 +17064,7 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -15709,18 +17072,20 @@
     <col min="4" max="5" width="30.77734375" style="6"/>
     <col min="6" max="6" width="30.77734375" style="2"/>
     <col min="7" max="9" width="30.77734375" style="6"/>
-    <col min="10" max="16384" width="30.77734375" style="2"/>
+    <col min="10" max="11" width="30.77734375" style="2"/>
+    <col min="12" max="12" width="35.77734375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="30.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="23" t="s">
         <v>380</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -15747,14 +17112,8 @@
       <c r="L1" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15787,12 +17146,6 @@
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -15823,7 +17176,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4FB6C7-BD8F-4FE1-BE8A-828697B5179F}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -15832,7 +17185,7 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.77734375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
@@ -15843,19 +17196,18 @@
     <col min="10" max="10" width="30.77734375" style="2"/>
     <col min="11" max="11" width="30.77734375" style="6"/>
     <col min="12" max="12" width="30.77734375" style="10"/>
-    <col min="13" max="13" width="30.77734375" style="2"/>
-    <col min="15" max="16384" width="30.77734375" style="2"/>
+    <col min="13" max="16384" width="30.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>395</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -15885,8 +17237,14 @@
       <c r="M1" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15922,6 +17280,12 @@
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
